--- a/results/preprocessed/preprocessed_posttest.xlsx
+++ b/results/preprocessed/preprocessed_posttest.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\master_arbeit\results\preprocessed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16CADF8-A30B-4EB1-9DAE-714C98ACCC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="258">
   <si>
     <t>Unique Code</t>
   </si>
@@ -413,9 +419,6 @@
   </si>
   <si>
     <t xml:space="preserve">222-1 227-149 113-35 133-62 405-56 202-58 179-82 174-110 182-149 397-150 168-178 196-220 174-187 174-230 182-196 174-238 174-220 170-260 163-308 150-344 179-314 376-54 182-308 172-344 75-394 120-356 156-322 404-44 150-362 150-318 177-370 185-315 236-127 264-145 266-163 246-58 178-328 160-354 131-385 133-339 168-179 172-358 155-314 214-164 176-243 204-188 156-324 182-166 193-192 232-216 306-144 260-160 211-186 180-220 216-200 128-344 248-167 213-185 213-82 141-359 86-385 130-353 170-305 144-360 189-283 180-253 405-56 182-72 229-276 151-424 118-404 234-267 322-88 174-106 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">122-71 394-53 127-78 203-97 167-151 153-177 152-193 186-222 180-265 181-217 186-197 190-238 176-272 163-325 154-352 142-383 129-401 136-359 146-319 143-252 146-267 188-45 221-76 395-51 250-162 188-195 219-141 249-171 419-64 218-53 272-167 257-209 126-224 242-38 240-56 198-217 178-258 241-159 201-220 174-293 175-324 172-264 164-336 159-362 161-323 159-357 164-334 161-353 102-403 165-64 163-230 163-171 168-280 161-259 173-221 185-175 185-196 165-173 175-205 166-225 147-258 172-209 174-199 148-376 148-327 146-306 148-330 152-357 153-325 147-300 148-261 158-200 145-273 144-354 139-398 166-184 150-88 165-57 206-100 171-189 178-223 155-256 163-223 201-239 179-224 226-200 157-187 151-172 200-92 229-68 217-161 229-79 181-151 180-197 160-261 145-318 147-343 143-371 136-359 152-174 125-140 157-190 208-236 289-42 241-62 107-311 128-355 193-154 174-211 182-186 195-158 189-197 163-163 238-97 277-72 374-41 393-67 390-58 </t>
   </si>
   <si>
     <t xml:space="preserve">156-144 211-177 205-51 470-56 206-72 331-63 214-105 238-165 243-199 252-165 206-178 220-158 223-199 178-246 173-263 181-317 173-375 119-405 166-351 153-298 170-273 188-240 221-213 241-186 241-165 259-209 171-267 220-223 243-186 178-259 238-104 244-56 </t>
@@ -796,8 +799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,15 +859,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -906,7 +917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,9 +949,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -972,6 +1001,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1147,14 +1194,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1317,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +1506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1477,7 +1526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1517,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1557,7 +1606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1617,7 +1666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1717,7 +1766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1777,7 +1826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1837,7 +1886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1857,7 +1906,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1897,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1917,7 +1966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1937,7 +1986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1957,7 +2006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1977,7 +2026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1997,7 +2046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2017,7 +2066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -2037,7 +2086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2057,7 +2106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2077,7 +2126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2117,7 +2166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +2226,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2217,7 +2266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2237,7 +2286,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2257,7 +2306,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2277,7 +2326,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2317,7 +2366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -2337,7 +2386,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2406,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2377,7 +2426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -2397,7 +2446,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2417,7 +2466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -2437,7 +2486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -2457,7 +2506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -2477,7 +2526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2546,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2517,7 +2566,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2537,7 +2586,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2557,7 +2606,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2597,7 +2646,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2617,7 +2666,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2686,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2706,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -2677,7 +2726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2717,7 +2766,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2737,7 +2786,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2806,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2777,7 +2826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2846,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -2817,7 +2866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2837,7 +2886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2857,7 +2906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -2877,7 +2926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2917,7 +2966,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2937,7 +2986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +3006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2977,7 +3026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2997,7 +3046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3066,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -3037,7 +3086,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -3057,12 +3106,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B96">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="C96" t="s">
         <v>33</v>
@@ -3071,18 +3120,18 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>33</v>
@@ -3097,12 +3146,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C98" t="s">
         <v>33</v>
@@ -3117,12 +3166,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
         <v>33</v>
@@ -3137,18 +3186,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
         <v>33</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3157,18 +3206,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B101">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="C101" t="s">
         <v>33</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3177,12 +3226,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
         <v>33</v>
@@ -3197,12 +3246,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B103">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
         <v>33</v>
@@ -3217,18 +3266,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B104">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3237,12 +3286,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
         <v>33</v>
@@ -3251,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
         <v>33</v>
@@ -3271,24 +3320,24 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B107">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
         <v>33</v>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -3297,18 +3346,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B108">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
         <v>33</v>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -3317,32 +3366,32 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B109">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
@@ -3351,44 +3400,44 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B111">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B112">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3397,18 +3446,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3417,18 +3466,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -3437,12 +3486,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -3457,38 +3506,38 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B116">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -3497,38 +3546,38 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
         <v>34</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
         <v>34</v>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3537,12 +3586,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B120">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="C120" t="s">
         <v>34</v>
@@ -3557,12 +3606,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B121">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s">
         <v>34</v>
@@ -3577,18 +3626,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B122">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3597,18 +3646,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B123">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
         <v>34</v>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3617,12 +3666,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B124">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
@@ -3637,12 +3686,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
         <v>34</v>
@@ -3657,18 +3706,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B126">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
         <v>34</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -3677,18 +3726,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B127">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
         <v>34</v>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -3697,12 +3746,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B128">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
         <v>34</v>
@@ -3711,38 +3760,38 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B129">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C129" t="s">
         <v>34</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B130">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -3757,12 +3806,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B131">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
@@ -3771,18 +3820,18 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B132">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -3791,38 +3840,38 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G132" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B133">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B134">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s">
         <v>35</v>
@@ -3837,12 +3886,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -3857,12 +3906,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -3877,12 +3926,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B137">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -3897,12 +3946,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B138">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -3917,12 +3966,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
         <v>35</v>
@@ -3937,12 +3986,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B140">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C140" t="s">
         <v>35</v>
@@ -3957,12 +4006,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s">
         <v>35</v>
@@ -3977,12 +4026,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
         <v>35</v>
@@ -3997,18 +4046,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B143">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C143" t="s">
         <v>35</v>
       </c>
       <c r="E143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -4017,12 +4066,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B144">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -4037,18 +4086,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B145">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
         <v>35</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -4057,12 +4106,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B146">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
         <v>35</v>
@@ -4077,12 +4126,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B147">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -4097,12 +4146,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B148">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -4117,12 +4166,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B149">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -4137,12 +4186,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B150">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -4157,12 +4206,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B151">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -4177,12 +4226,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B152">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -4197,12 +4246,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B153">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -4217,12 +4266,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B154">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -4237,15 +4286,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B155">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -4257,18 +4306,18 @@
         <v>192</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B156">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="C156" t="s">
         <v>36</v>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4277,12 +4326,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B157">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
@@ -4297,18 +4346,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B158">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
         <v>36</v>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4317,12 +4366,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B159">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C159" t="s">
         <v>36</v>
@@ -4337,12 +4386,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B160">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
@@ -4351,24 +4400,24 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B161">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -4377,38 +4426,38 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B162">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B163">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C163" t="s">
         <v>36</v>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4417,18 +4466,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B164">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C164" t="s">
         <v>36</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -4437,12 +4486,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B165">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -4457,98 +4506,98 @@
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="C166" t="s">
         <v>36</v>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G166" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B167">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="C167" t="s">
         <v>36</v>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B168">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="C168" t="s">
         <v>36</v>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B169">
-        <v>457</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B170">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -4557,12 +4606,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B171">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C171" t="s">
         <v>36</v>
@@ -4571,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G171" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B172">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C172" t="s">
         <v>36</v>
@@ -4591,44 +4640,44 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G172" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B173">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C173" t="s">
         <v>36</v>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G173" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B174">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C174" t="s">
         <v>36</v>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4637,38 +4686,38 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B175">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C175" t="s">
         <v>36</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B176">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C176" t="s">
         <v>36</v>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -4677,18 +4726,18 @@
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B177">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -4697,12 +4746,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B178">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="C178" t="s">
         <v>37</v>
@@ -4711,18 +4760,18 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G178" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B179">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
@@ -4731,15 +4780,15 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G179" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B180">
         <v>54</v>
@@ -4751,18 +4800,18 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B181">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -4771,18 +4820,18 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182">
-        <v>223</v>
+        <v>724</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -4791,18 +4840,18 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G182" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B183">
-        <v>724</v>
+        <v>101</v>
       </c>
       <c r="C183" t="s">
         <v>37</v>
@@ -4811,18 +4860,18 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B184">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C184" t="s">
         <v>37</v>
@@ -4837,12 +4886,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B185">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C185" t="s">
         <v>37</v>
@@ -4857,12 +4906,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B186">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C186" t="s">
         <v>37</v>
@@ -4877,12 +4926,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B187">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
         <v>37</v>
@@ -4897,12 +4946,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B188">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C188" t="s">
         <v>37</v>
@@ -4917,12 +4966,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B189">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C189" t="s">
         <v>37</v>
@@ -4937,12 +4986,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C190" t="s">
         <v>37</v>
@@ -4957,12 +5006,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B191">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="C191" t="s">
         <v>37</v>
@@ -4977,12 +5026,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B192">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="C192" t="s">
         <v>37</v>
@@ -4997,12 +5046,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B193">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="C193" t="s">
         <v>37</v>
@@ -5011,18 +5060,18 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B194">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C194" t="s">
         <v>37</v>
@@ -5031,18 +5080,18 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G194" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B195">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C195" t="s">
         <v>37</v>
@@ -5051,18 +5100,18 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G195" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B196">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="C196" t="s">
         <v>37</v>
@@ -5071,18 +5120,18 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G196" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B197">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
         <v>37</v>
@@ -5091,18 +5140,18 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G197" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C198" t="s">
         <v>37</v>
@@ -5111,44 +5160,44 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B199">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B200">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C200" t="s">
         <v>38</v>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -5157,32 +5206,32 @@
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B201">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C201" t="s">
         <v>38</v>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G201" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B202">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
@@ -5191,18 +5240,18 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G202" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B203">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C203" t="s">
         <v>38</v>
@@ -5217,12 +5266,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B204">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C204" t="s">
         <v>38</v>
@@ -5237,12 +5286,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B205">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
@@ -5257,12 +5306,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B206">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C206" t="s">
         <v>38</v>
@@ -5277,12 +5326,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B207">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C207" t="s">
         <v>38</v>
@@ -5297,12 +5346,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B208">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C208" t="s">
         <v>38</v>
@@ -5317,12 +5366,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B209">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C209" t="s">
         <v>38</v>
@@ -5337,12 +5386,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B210">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C210" t="s">
         <v>38</v>
@@ -5357,12 +5406,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B211">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -5377,12 +5426,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B212">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C212" t="s">
         <v>38</v>
@@ -5397,12 +5446,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B213">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
@@ -5417,12 +5466,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B214">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C214" t="s">
         <v>38</v>
@@ -5437,12 +5486,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B215">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C215" t="s">
         <v>38</v>
@@ -5457,58 +5506,58 @@
         <v>252</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B216">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
         <v>38</v>
       </c>
       <c r="E216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G216" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B217">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C217" t="s">
         <v>38</v>
       </c>
       <c r="E217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B218">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C218" t="s">
         <v>38</v>
       </c>
       <c r="E218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -5517,18 +5566,18 @@
         <v>255</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B219">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C219" t="s">
         <v>38</v>
       </c>
       <c r="E219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -5537,12 +5586,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B220">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C220" t="s">
         <v>38</v>
@@ -5555,26 +5604,6 @@
       </c>
       <c r="G220" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" t="s">
-        <v>28</v>
-      </c>
-      <c r="B221">
-        <v>51</v>
-      </c>
-      <c r="C221" t="s">
-        <v>38</v>
-      </c>
-      <c r="E221" t="b">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
